--- a/7/1/1/1/5/Series desestacionalizadas 2013 a 2021 - Trimestral.xlsx
+++ b/7/1/1/1/5/Series desestacionalizadas 2013 a 2021 - Trimestral.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="65">
   <si>
     <t>Serie</t>
   </si>
@@ -206,6 +206,9 @@
   </si>
   <si>
     <t>01-01-2021</t>
+  </si>
+  <si>
+    <t>01-04-2021</t>
   </si>
 </sst>
 </file>
@@ -563,7 +566,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AE34"/>
+  <dimension ref="A1:AE35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -675,19 +678,19 @@
         <v>148</v>
       </c>
       <c r="D2">
-        <v>3708</v>
+        <v>3709</v>
       </c>
       <c r="E2">
-        <v>3277</v>
+        <v>3278</v>
       </c>
       <c r="F2">
         <v>431</v>
       </c>
       <c r="G2">
-        <v>3804</v>
+        <v>3799</v>
       </c>
       <c r="H2">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="I2">
         <v>508</v>
@@ -702,7 +705,7 @@
         <v>287</v>
       </c>
       <c r="M2">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="N2">
         <v>532</v>
@@ -711,7 +714,7 @@
         <v>224</v>
       </c>
       <c r="P2">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="Q2">
         <v>905</v>
@@ -720,10 +723,10 @@
         <v>2192</v>
       </c>
       <c r="S2">
-        <v>3029</v>
+        <v>3028</v>
       </c>
       <c r="T2">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="U2">
         <v>1609</v>
@@ -732,13 +735,13 @@
         <v>1059</v>
       </c>
       <c r="W2">
-        <v>1686</v>
+        <v>1687</v>
       </c>
       <c r="X2">
         <v>3634</v>
       </c>
       <c r="Y2">
-        <v>2400</v>
+        <v>2399</v>
       </c>
       <c r="Z2">
         <v>3720</v>
@@ -747,16 +750,16 @@
         <v>1538</v>
       </c>
       <c r="AB2">
-        <v>31067</v>
+        <v>31061</v>
       </c>
       <c r="AC2">
-        <v>2693</v>
+        <v>2692</v>
       </c>
       <c r="AD2">
         <v>170</v>
       </c>
       <c r="AE2">
-        <v>33929</v>
+        <v>33924</v>
       </c>
     </row>
     <row r="3" spans="1:31">
@@ -776,34 +779,34 @@
         <v>3280</v>
       </c>
       <c r="F3">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="G3">
-        <v>3874</v>
+        <v>3885</v>
       </c>
       <c r="H3">
         <v>1011</v>
       </c>
       <c r="I3">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="J3">
         <v>96</v>
       </c>
       <c r="K3">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="L3">
         <v>309</v>
       </c>
       <c r="M3">
-        <v>286</v>
+        <v>298</v>
       </c>
       <c r="N3">
         <v>540</v>
       </c>
       <c r="O3">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="P3">
         <v>674</v>
@@ -812,7 +815,7 @@
         <v>863</v>
       </c>
       <c r="R3">
-        <v>2265</v>
+        <v>2264</v>
       </c>
       <c r="S3">
         <v>3149</v>
@@ -830,7 +833,7 @@
         <v>1711</v>
       </c>
       <c r="X3">
-        <v>3702</v>
+        <v>3703</v>
       </c>
       <c r="Y3">
         <v>2451</v>
@@ -842,16 +845,16 @@
         <v>1543</v>
       </c>
       <c r="AB3">
-        <v>31539</v>
+        <v>31550</v>
       </c>
       <c r="AC3">
-        <v>2744</v>
+        <v>2745</v>
       </c>
       <c r="AD3">
         <v>153</v>
       </c>
       <c r="AE3">
-        <v>34436</v>
+        <v>34448</v>
       </c>
     </row>
     <row r="4" spans="1:31">
@@ -865,16 +868,16 @@
         <v>151</v>
       </c>
       <c r="D4">
-        <v>3887</v>
+        <v>3886</v>
       </c>
       <c r="E4">
-        <v>3469</v>
+        <v>3468</v>
       </c>
       <c r="F4">
         <v>418</v>
       </c>
       <c r="G4">
-        <v>3888</v>
+        <v>3883</v>
       </c>
       <c r="H4">
         <v>1004</v>
@@ -892,7 +895,7 @@
         <v>313</v>
       </c>
       <c r="M4">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="N4">
         <v>560</v>
@@ -907,7 +910,7 @@
         <v>887</v>
       </c>
       <c r="R4">
-        <v>2266</v>
+        <v>2267</v>
       </c>
       <c r="S4">
         <v>3163</v>
@@ -919,10 +922,10 @@
         <v>1627</v>
       </c>
       <c r="V4">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="W4">
-        <v>1750</v>
+        <v>1749</v>
       </c>
       <c r="X4">
         <v>3675</v>
@@ -937,7 +940,7 @@
         <v>1549</v>
       </c>
       <c r="AB4">
-        <v>31786</v>
+        <v>31779</v>
       </c>
       <c r="AC4">
         <v>2791</v>
@@ -946,7 +949,7 @@
         <v>172</v>
       </c>
       <c r="AE4">
-        <v>34750</v>
+        <v>34742</v>
       </c>
     </row>
     <row r="5" spans="1:31">
@@ -969,16 +972,16 @@
         <v>400</v>
       </c>
       <c r="G5">
-        <v>3792</v>
+        <v>3788</v>
       </c>
       <c r="H5">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="I5">
         <v>492</v>
       </c>
       <c r="J5">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K5">
         <v>196</v>
@@ -987,7 +990,7 @@
         <v>306</v>
       </c>
       <c r="M5">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="N5">
         <v>573</v>
@@ -1002,16 +1005,16 @@
         <v>890</v>
       </c>
       <c r="R5">
-        <v>2267</v>
+        <v>2266</v>
       </c>
       <c r="S5">
-        <v>3202</v>
+        <v>3201</v>
       </c>
       <c r="T5">
         <v>642</v>
       </c>
       <c r="U5">
-        <v>1630</v>
+        <v>1629</v>
       </c>
       <c r="V5">
         <v>1088</v>
@@ -1020,7 +1023,7 @@
         <v>1750</v>
       </c>
       <c r="X5">
-        <v>3717</v>
+        <v>3716</v>
       </c>
       <c r="Y5">
         <v>2484</v>
@@ -1032,16 +1035,16 @@
         <v>1557</v>
       </c>
       <c r="AB5">
-        <v>31857</v>
+        <v>31850</v>
       </c>
       <c r="AC5">
-        <v>2811</v>
+        <v>2809</v>
       </c>
       <c r="AD5">
         <v>156</v>
       </c>
       <c r="AE5">
-        <v>34824</v>
+        <v>34815</v>
       </c>
     </row>
     <row r="6" spans="1:31">
@@ -1052,25 +1055,25 @@
         <v>952</v>
       </c>
       <c r="C6">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D6">
-        <v>3899</v>
+        <v>3901</v>
       </c>
       <c r="E6">
-        <v>3503</v>
+        <v>3504</v>
       </c>
       <c r="F6">
         <v>397</v>
       </c>
       <c r="G6">
-        <v>3799</v>
+        <v>3793</v>
       </c>
       <c r="H6">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="I6">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="J6">
         <v>84</v>
@@ -1082,7 +1085,7 @@
         <v>312</v>
       </c>
       <c r="M6">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="N6">
         <v>583</v>
@@ -1097,7 +1100,7 @@
         <v>877</v>
       </c>
       <c r="R6">
-        <v>2205</v>
+        <v>2206</v>
       </c>
       <c r="S6">
         <v>3180</v>
@@ -1109,13 +1112,13 @@
         <v>1638</v>
       </c>
       <c r="V6">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="W6">
         <v>1769</v>
       </c>
       <c r="X6">
-        <v>3764</v>
+        <v>3763</v>
       </c>
       <c r="Y6">
         <v>2503</v>
@@ -1127,16 +1130,16 @@
         <v>1580</v>
       </c>
       <c r="AB6">
-        <v>31912</v>
+        <v>31908</v>
       </c>
       <c r="AC6">
-        <v>2792</v>
+        <v>2791</v>
       </c>
       <c r="AD6">
         <v>169</v>
       </c>
       <c r="AE6">
-        <v>34873</v>
+        <v>34867</v>
       </c>
     </row>
     <row r="7" spans="1:31">
@@ -1144,28 +1147,28 @@
         <v>36</v>
       </c>
       <c r="B7">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="C7">
         <v>205</v>
       </c>
       <c r="D7">
-        <v>3929</v>
+        <v>3928</v>
       </c>
       <c r="E7">
-        <v>3519</v>
+        <v>3518</v>
       </c>
       <c r="F7">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="G7">
-        <v>3838</v>
+        <v>3849</v>
       </c>
       <c r="H7">
         <v>1023</v>
       </c>
       <c r="I7">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="J7">
         <v>86</v>
@@ -1177,13 +1180,13 @@
         <v>311</v>
       </c>
       <c r="M7">
-        <v>306</v>
+        <v>319</v>
       </c>
       <c r="N7">
         <v>587</v>
       </c>
       <c r="O7">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="P7">
         <v>620</v>
@@ -1192,10 +1195,10 @@
         <v>924</v>
       </c>
       <c r="R7">
-        <v>2221</v>
+        <v>2220</v>
       </c>
       <c r="S7">
-        <v>3211</v>
+        <v>3212</v>
       </c>
       <c r="T7">
         <v>659</v>
@@ -1210,28 +1213,28 @@
         <v>1768</v>
       </c>
       <c r="X7">
-        <v>3712</v>
+        <v>3714</v>
       </c>
       <c r="Y7">
         <v>2529</v>
       </c>
       <c r="Z7">
-        <v>3824</v>
+        <v>3823</v>
       </c>
       <c r="AA7">
         <v>1577</v>
       </c>
       <c r="AB7">
-        <v>32081</v>
+        <v>32092</v>
       </c>
       <c r="AC7">
-        <v>2793</v>
+        <v>2797</v>
       </c>
       <c r="AD7">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="AE7">
-        <v>35017</v>
+        <v>35031</v>
       </c>
     </row>
     <row r="8" spans="1:31">
@@ -1245,19 +1248,19 @@
         <v>195</v>
       </c>
       <c r="D8">
-        <v>3836</v>
+        <v>3835</v>
       </c>
       <c r="E8">
-        <v>3415</v>
+        <v>3414</v>
       </c>
       <c r="F8">
         <v>421</v>
       </c>
       <c r="G8">
-        <v>3785</v>
+        <v>3780</v>
       </c>
       <c r="H8">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="I8">
         <v>482</v>
@@ -1266,22 +1269,22 @@
         <v>84</v>
       </c>
       <c r="K8">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="L8">
         <v>303</v>
       </c>
       <c r="M8">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="N8">
         <v>571</v>
       </c>
       <c r="O8">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="P8">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="Q8">
         <v>923</v>
@@ -1290,7 +1293,7 @@
         <v>2178</v>
       </c>
       <c r="S8">
-        <v>3222</v>
+        <v>3220</v>
       </c>
       <c r="T8">
         <v>666</v>
@@ -1299,34 +1302,34 @@
         <v>1684</v>
       </c>
       <c r="V8">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="W8">
-        <v>1782</v>
+        <v>1781</v>
       </c>
       <c r="X8">
-        <v>3683</v>
+        <v>3682</v>
       </c>
       <c r="Y8">
         <v>2581</v>
       </c>
       <c r="Z8">
-        <v>3868</v>
+        <v>3869</v>
       </c>
       <c r="AA8">
         <v>1587</v>
       </c>
       <c r="AB8">
-        <v>32064</v>
+        <v>32054</v>
       </c>
       <c r="AC8">
-        <v>2800</v>
+        <v>2799</v>
       </c>
       <c r="AD8">
         <v>149</v>
       </c>
       <c r="AE8">
-        <v>35013</v>
+        <v>35002</v>
       </c>
     </row>
     <row r="9" spans="1:31">
@@ -1349,7 +1352,7 @@
         <v>428</v>
       </c>
       <c r="G9">
-        <v>3797</v>
+        <v>3793</v>
       </c>
       <c r="H9">
         <v>1000</v>
@@ -1367,7 +1370,7 @@
         <v>302</v>
       </c>
       <c r="M9">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="N9">
         <v>587</v>
@@ -1379,19 +1382,19 @@
         <v>615</v>
       </c>
       <c r="Q9">
-        <v>956</v>
+        <v>957</v>
       </c>
       <c r="R9">
-        <v>2227</v>
+        <v>2226</v>
       </c>
       <c r="S9">
-        <v>3222</v>
+        <v>3220</v>
       </c>
       <c r="T9">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="U9">
-        <v>1706</v>
+        <v>1705</v>
       </c>
       <c r="V9">
         <v>1132</v>
@@ -1400,28 +1403,28 @@
         <v>1803</v>
       </c>
       <c r="X9">
-        <v>3670</v>
+        <v>3669</v>
       </c>
       <c r="Y9">
         <v>2605</v>
       </c>
       <c r="Z9">
-        <v>3937</v>
+        <v>3938</v>
       </c>
       <c r="AA9">
         <v>1612</v>
       </c>
       <c r="AB9">
-        <v>32418</v>
+        <v>32411</v>
       </c>
       <c r="AC9">
-        <v>2842</v>
+        <v>2840</v>
       </c>
       <c r="AD9">
         <v>155</v>
       </c>
       <c r="AE9">
-        <v>35415</v>
+        <v>35406</v>
       </c>
     </row>
     <row r="10" spans="1:31">
@@ -1432,22 +1435,22 @@
         <v>1049</v>
       </c>
       <c r="C10">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D10">
-        <v>3941</v>
+        <v>3943</v>
       </c>
       <c r="E10">
-        <v>3530</v>
+        <v>3532</v>
       </c>
       <c r="F10">
         <v>409</v>
       </c>
       <c r="G10">
-        <v>3759</v>
+        <v>3753</v>
       </c>
       <c r="H10">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="I10">
         <v>501</v>
@@ -1459,25 +1462,25 @@
         <v>208</v>
       </c>
       <c r="L10">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="M10">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="N10">
         <v>574</v>
       </c>
       <c r="O10">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="P10">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="Q10">
-        <v>909</v>
+        <v>910</v>
       </c>
       <c r="R10">
-        <v>2202</v>
+        <v>2203</v>
       </c>
       <c r="S10">
         <v>3269</v>
@@ -1492,31 +1495,31 @@
         <v>1151</v>
       </c>
       <c r="W10">
-        <v>1820</v>
+        <v>1821</v>
       </c>
       <c r="X10">
-        <v>3685</v>
+        <v>3684</v>
       </c>
       <c r="Y10">
         <v>2617</v>
       </c>
       <c r="Z10">
-        <v>3911</v>
+        <v>3912</v>
       </c>
       <c r="AA10">
         <v>1618</v>
       </c>
       <c r="AB10">
-        <v>32508</v>
+        <v>32505</v>
       </c>
       <c r="AC10">
-        <v>2833</v>
+        <v>2831</v>
       </c>
       <c r="AD10">
         <v>163</v>
       </c>
       <c r="AE10">
-        <v>35505</v>
+        <v>35500</v>
       </c>
     </row>
     <row r="11" spans="1:31">
@@ -1524,28 +1527,28 @@
         <v>40</v>
       </c>
       <c r="B11">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="C11">
         <v>184</v>
       </c>
       <c r="D11">
-        <v>3973</v>
+        <v>3972</v>
       </c>
       <c r="E11">
-        <v>3564</v>
+        <v>3563</v>
       </c>
       <c r="F11">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="G11">
-        <v>3847</v>
+        <v>3857</v>
       </c>
       <c r="H11">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="I11">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="J11">
         <v>93</v>
@@ -1557,10 +1560,10 @@
         <v>302</v>
       </c>
       <c r="M11">
-        <v>297</v>
+        <v>309</v>
       </c>
       <c r="N11">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="O11">
         <v>207</v>
@@ -1569,16 +1572,16 @@
         <v>621</v>
       </c>
       <c r="Q11">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="R11">
         <v>2324</v>
       </c>
       <c r="S11">
-        <v>3274</v>
+        <v>3276</v>
       </c>
       <c r="T11">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="U11">
         <v>1760</v>
@@ -1590,28 +1593,28 @@
         <v>1843</v>
       </c>
       <c r="X11">
-        <v>3703</v>
+        <v>3706</v>
       </c>
       <c r="Y11">
         <v>2628</v>
       </c>
       <c r="Z11">
-        <v>3922</v>
+        <v>3920</v>
       </c>
       <c r="AA11">
         <v>1642</v>
       </c>
       <c r="AB11">
-        <v>32934</v>
+        <v>32946</v>
       </c>
       <c r="AC11">
-        <v>2860</v>
+        <v>2866</v>
       </c>
       <c r="AD11">
         <v>153</v>
       </c>
       <c r="AE11">
-        <v>35948</v>
+        <v>35965</v>
       </c>
     </row>
     <row r="12" spans="1:31">
@@ -1622,19 +1625,19 @@
         <v>1065</v>
       </c>
       <c r="C12">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D12">
-        <v>3642</v>
+        <v>3640</v>
       </c>
       <c r="E12">
-        <v>3247</v>
+        <v>3246</v>
       </c>
       <c r="F12">
         <v>395</v>
       </c>
       <c r="G12">
-        <v>3803</v>
+        <v>3799</v>
       </c>
       <c r="H12">
         <v>986</v>
@@ -1652,13 +1655,13 @@
         <v>294</v>
       </c>
       <c r="M12">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="N12">
         <v>554</v>
       </c>
       <c r="O12">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="P12">
         <v>634</v>
@@ -1667,10 +1670,10 @@
         <v>982</v>
       </c>
       <c r="R12">
-        <v>2334</v>
+        <v>2331</v>
       </c>
       <c r="S12">
-        <v>3261</v>
+        <v>3259</v>
       </c>
       <c r="T12">
         <v>693</v>
@@ -1679,34 +1682,34 @@
         <v>1765</v>
       </c>
       <c r="V12">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="W12">
-        <v>1858</v>
+        <v>1856</v>
       </c>
       <c r="X12">
         <v>3738</v>
       </c>
       <c r="Y12">
-        <v>2655</v>
+        <v>2654</v>
       </c>
       <c r="Z12">
-        <v>3985</v>
+        <v>3986</v>
       </c>
       <c r="AA12">
         <v>1662</v>
       </c>
       <c r="AB12">
-        <v>32790</v>
+        <v>32779</v>
       </c>
       <c r="AC12">
-        <v>2900</v>
+        <v>2898</v>
       </c>
       <c r="AD12">
         <v>153</v>
       </c>
       <c r="AE12">
-        <v>35843</v>
+        <v>35830</v>
       </c>
     </row>
     <row r="13" spans="1:31">
@@ -1729,16 +1732,16 @@
         <v>416</v>
       </c>
       <c r="G13">
-        <v>3816</v>
+        <v>3812</v>
       </c>
       <c r="H13">
         <v>995</v>
       </c>
       <c r="I13">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="J13">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K13">
         <v>200</v>
@@ -1747,61 +1750,61 @@
         <v>300</v>
       </c>
       <c r="M13">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="N13">
         <v>545</v>
       </c>
       <c r="O13">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="P13">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="Q13">
-        <v>1018</v>
+        <v>1019</v>
       </c>
       <c r="R13">
-        <v>2333</v>
+        <v>2332</v>
       </c>
       <c r="S13">
-        <v>3255</v>
+        <v>3252</v>
       </c>
       <c r="T13">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="U13">
-        <v>1797</v>
+        <v>1796</v>
       </c>
       <c r="V13">
         <v>1195</v>
       </c>
       <c r="W13">
-        <v>1875</v>
+        <v>1876</v>
       </c>
       <c r="X13">
-        <v>3727</v>
+        <v>3725</v>
       </c>
       <c r="Y13">
         <v>2652</v>
       </c>
       <c r="Z13">
-        <v>4063</v>
+        <v>4065</v>
       </c>
       <c r="AA13">
-        <v>1681</v>
+        <v>1682</v>
       </c>
       <c r="AB13">
-        <v>33113</v>
+        <v>33105</v>
       </c>
       <c r="AC13">
-        <v>2913</v>
+        <v>2910</v>
       </c>
       <c r="AD13">
         <v>165</v>
       </c>
       <c r="AE13">
-        <v>36192</v>
+        <v>36180</v>
       </c>
     </row>
     <row r="14" spans="1:31">
@@ -1815,52 +1818,52 @@
         <v>167</v>
       </c>
       <c r="D14">
-        <v>3914</v>
+        <v>3918</v>
       </c>
       <c r="E14">
-        <v>3506</v>
+        <v>3509</v>
       </c>
       <c r="F14">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="G14">
-        <v>3799</v>
+        <v>3793</v>
       </c>
       <c r="H14">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="I14">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="J14">
         <v>88</v>
       </c>
       <c r="K14">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="L14">
         <v>302</v>
       </c>
       <c r="M14">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="N14">
         <v>569</v>
       </c>
       <c r="O14">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="P14">
         <v>616</v>
       </c>
       <c r="Q14">
-        <v>985</v>
+        <v>986</v>
       </c>
       <c r="R14">
-        <v>2301</v>
+        <v>2303</v>
       </c>
       <c r="S14">
-        <v>3313</v>
+        <v>3312</v>
       </c>
       <c r="T14">
         <v>699</v>
@@ -1872,10 +1875,10 @@
         <v>1203</v>
       </c>
       <c r="W14">
-        <v>1922</v>
+        <v>1925</v>
       </c>
       <c r="X14">
-        <v>3691</v>
+        <v>3689</v>
       </c>
       <c r="Y14">
         <v>2644</v>
@@ -1887,16 +1890,16 @@
         <v>1698</v>
       </c>
       <c r="AB14">
-        <v>33374</v>
+        <v>33372</v>
       </c>
       <c r="AC14">
-        <v>2910</v>
+        <v>2907</v>
       </c>
       <c r="AD14">
         <v>141</v>
       </c>
       <c r="AE14">
-        <v>36424</v>
+        <v>36418</v>
       </c>
     </row>
     <row r="15" spans="1:31">
@@ -1910,22 +1913,22 @@
         <v>178</v>
       </c>
       <c r="D15">
-        <v>3801</v>
+        <v>3799</v>
       </c>
       <c r="E15">
-        <v>3388</v>
+        <v>3386</v>
       </c>
       <c r="F15">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="G15">
-        <v>3718</v>
+        <v>3730</v>
       </c>
       <c r="H15">
         <v>955</v>
       </c>
       <c r="I15">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="J15">
         <v>90</v>
@@ -1937,61 +1940,61 @@
         <v>289</v>
       </c>
       <c r="M15">
-        <v>294</v>
+        <v>306</v>
       </c>
       <c r="N15">
         <v>553</v>
       </c>
       <c r="O15">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="P15">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="Q15">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="R15">
-        <v>2390</v>
+        <v>2391</v>
       </c>
       <c r="S15">
-        <v>3269</v>
+        <v>3273</v>
       </c>
       <c r="T15">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="U15">
         <v>1813</v>
       </c>
       <c r="V15">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="W15">
-        <v>1920</v>
+        <v>1919</v>
       </c>
       <c r="X15">
-        <v>3672</v>
+        <v>3677</v>
       </c>
       <c r="Y15">
-        <v>2671</v>
+        <v>2670</v>
       </c>
       <c r="Z15">
-        <v>4200</v>
+        <v>4197</v>
       </c>
       <c r="AA15">
         <v>1702</v>
       </c>
       <c r="AB15">
-        <v>33264</v>
+        <v>33279</v>
       </c>
       <c r="AC15">
-        <v>2912</v>
+        <v>2919</v>
       </c>
       <c r="AD15">
         <v>144</v>
       </c>
       <c r="AE15">
-        <v>36320</v>
+        <v>36341</v>
       </c>
     </row>
     <row r="16" spans="1:31">
@@ -2005,16 +2008,16 @@
         <v>154</v>
       </c>
       <c r="D16">
-        <v>3651</v>
+        <v>3649</v>
       </c>
       <c r="E16">
-        <v>3247</v>
+        <v>3246</v>
       </c>
       <c r="F16">
         <v>406</v>
       </c>
       <c r="G16">
-        <v>3735</v>
+        <v>3729</v>
       </c>
       <c r="H16">
         <v>979</v>
@@ -2026,31 +2029,31 @@
         <v>95</v>
       </c>
       <c r="K16">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="L16">
         <v>297</v>
       </c>
       <c r="M16">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="N16">
         <v>554</v>
       </c>
       <c r="O16">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="P16">
         <v>619</v>
       </c>
       <c r="Q16">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="R16">
-        <v>2430</v>
+        <v>2426</v>
       </c>
       <c r="S16">
-        <v>3289</v>
+        <v>3286</v>
       </c>
       <c r="T16">
         <v>711</v>
@@ -2059,10 +2062,10 @@
         <v>1839</v>
       </c>
       <c r="V16">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="W16">
-        <v>1920</v>
+        <v>1917</v>
       </c>
       <c r="X16">
         <v>3661</v>
@@ -2071,22 +2074,22 @@
         <v>2674</v>
       </c>
       <c r="Z16">
-        <v>4252</v>
+        <v>4253</v>
       </c>
       <c r="AA16">
         <v>1710</v>
       </c>
       <c r="AB16">
-        <v>33363</v>
+        <v>33346</v>
       </c>
       <c r="AC16">
-        <v>2950</v>
+        <v>2949</v>
       </c>
       <c r="AD16">
         <v>177</v>
       </c>
       <c r="AE16">
-        <v>36492</v>
+        <v>36473</v>
       </c>
     </row>
     <row r="17" spans="1:31">
@@ -2094,28 +2097,28 @@
         <v>46</v>
       </c>
       <c r="B17">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="C17">
         <v>163</v>
       </c>
       <c r="D17">
-        <v>3635</v>
+        <v>3636</v>
       </c>
       <c r="E17">
-        <v>3234</v>
+        <v>3235</v>
       </c>
       <c r="F17">
         <v>403</v>
       </c>
       <c r="G17">
-        <v>3788</v>
+        <v>3785</v>
       </c>
       <c r="H17">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I17">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="J17">
         <v>97</v>
@@ -2127,7 +2130,7 @@
         <v>304</v>
       </c>
       <c r="M17">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="N17">
         <v>561</v>
@@ -2139,49 +2142,49 @@
         <v>624</v>
       </c>
       <c r="Q17">
-        <v>961</v>
+        <v>962</v>
       </c>
       <c r="R17">
         <v>2392</v>
       </c>
       <c r="S17">
-        <v>3336</v>
+        <v>3333</v>
       </c>
       <c r="T17">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="U17">
-        <v>1848</v>
+        <v>1847</v>
       </c>
       <c r="V17">
         <v>1223</v>
       </c>
       <c r="W17">
-        <v>1908</v>
+        <v>1909</v>
       </c>
       <c r="X17">
-        <v>3645</v>
+        <v>3642</v>
       </c>
       <c r="Y17">
         <v>2691</v>
       </c>
       <c r="Z17">
-        <v>4240</v>
+        <v>4243</v>
       </c>
       <c r="AA17">
         <v>1714</v>
       </c>
       <c r="AB17">
-        <v>33419</v>
+        <v>33413</v>
       </c>
       <c r="AC17">
-        <v>2977</v>
+        <v>2972</v>
       </c>
       <c r="AD17">
         <v>181</v>
       </c>
       <c r="AE17">
-        <v>36580</v>
+        <v>36569</v>
       </c>
     </row>
     <row r="18" spans="1:31">
@@ -2192,25 +2195,25 @@
         <v>1055</v>
       </c>
       <c r="C18">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D18">
-        <v>3378</v>
+        <v>3382</v>
       </c>
       <c r="E18">
-        <v>2990</v>
+        <v>2993</v>
       </c>
       <c r="F18">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="G18">
-        <v>3749</v>
+        <v>3743</v>
       </c>
       <c r="H18">
-        <v>1002</v>
+        <v>1000</v>
       </c>
       <c r="I18">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="J18">
         <v>95</v>
@@ -2222,22 +2225,22 @@
         <v>291</v>
       </c>
       <c r="M18">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="N18">
         <v>539</v>
       </c>
       <c r="O18">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="P18">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="Q18">
-        <v>1002</v>
+        <v>1004</v>
       </c>
       <c r="R18">
-        <v>2304</v>
+        <v>2308</v>
       </c>
       <c r="S18">
         <v>3375</v>
@@ -2252,31 +2255,31 @@
         <v>1223</v>
       </c>
       <c r="W18">
-        <v>1880</v>
+        <v>1884</v>
       </c>
       <c r="X18">
-        <v>3559</v>
+        <v>3556</v>
       </c>
       <c r="Y18">
-        <v>2703</v>
+        <v>2704</v>
       </c>
       <c r="Z18">
-        <v>4270</v>
+        <v>4269</v>
       </c>
       <c r="AA18">
         <v>1721</v>
       </c>
       <c r="AB18">
-        <v>33088</v>
+        <v>33090</v>
       </c>
       <c r="AC18">
-        <v>3007</v>
+        <v>3002</v>
       </c>
       <c r="AD18">
         <v>175</v>
       </c>
       <c r="AE18">
-        <v>36270</v>
+        <v>36268</v>
       </c>
     </row>
     <row r="19" spans="1:31">
@@ -2284,94 +2287,94 @@
         <v>48</v>
       </c>
       <c r="B19">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="C19">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D19">
-        <v>3677</v>
+        <v>3673</v>
       </c>
       <c r="E19">
-        <v>3311</v>
+        <v>3308</v>
       </c>
       <c r="F19">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="G19">
-        <v>3777</v>
+        <v>3787</v>
       </c>
       <c r="H19">
         <v>1025</v>
       </c>
       <c r="I19">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="J19">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K19">
         <v>204</v>
       </c>
       <c r="L19">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="M19">
-        <v>301</v>
+        <v>314</v>
       </c>
       <c r="N19">
         <v>551</v>
       </c>
       <c r="O19">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="P19">
         <v>632</v>
       </c>
       <c r="Q19">
-        <v>1005</v>
+        <v>1002</v>
       </c>
       <c r="R19">
-        <v>2245</v>
+        <v>2247</v>
       </c>
       <c r="S19">
-        <v>3439</v>
+        <v>3445</v>
       </c>
       <c r="T19">
-        <v>707</v>
+        <v>709</v>
       </c>
       <c r="U19">
         <v>1839</v>
       </c>
       <c r="V19">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="W19">
-        <v>1890</v>
+        <v>1888</v>
       </c>
       <c r="X19">
-        <v>3580</v>
+        <v>3586</v>
       </c>
       <c r="Y19">
-        <v>2725</v>
+        <v>2724</v>
       </c>
       <c r="Z19">
-        <v>4279</v>
+        <v>4275</v>
       </c>
       <c r="AA19">
         <v>1733</v>
       </c>
       <c r="AB19">
-        <v>33454</v>
+        <v>33467</v>
       </c>
       <c r="AC19">
-        <v>3009</v>
+        <v>3019</v>
       </c>
       <c r="AD19">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="AE19">
-        <v>36624</v>
+        <v>36646</v>
       </c>
     </row>
     <row r="20" spans="1:31">
@@ -2385,22 +2388,22 @@
         <v>204</v>
       </c>
       <c r="D20">
-        <v>3850</v>
+        <v>3848</v>
       </c>
       <c r="E20">
-        <v>3465</v>
+        <v>3463</v>
       </c>
       <c r="F20">
         <v>390</v>
       </c>
       <c r="G20">
-        <v>3870</v>
+        <v>3864</v>
       </c>
       <c r="H20">
-        <v>1071</v>
+        <v>1072</v>
       </c>
       <c r="I20">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="J20">
         <v>93</v>
@@ -2412,25 +2415,25 @@
         <v>303</v>
       </c>
       <c r="M20">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="N20">
         <v>549</v>
       </c>
       <c r="O20">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="P20">
         <v>658</v>
       </c>
       <c r="Q20">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="R20">
-        <v>2278</v>
+        <v>2271</v>
       </c>
       <c r="S20">
-        <v>3435</v>
+        <v>3431</v>
       </c>
       <c r="T20">
         <v>728</v>
@@ -2439,34 +2442,34 @@
         <v>1888</v>
       </c>
       <c r="V20">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="W20">
-        <v>1958</v>
+        <v>1954</v>
       </c>
       <c r="X20">
         <v>3647</v>
       </c>
       <c r="Y20">
-        <v>2759</v>
+        <v>2758</v>
       </c>
       <c r="Z20">
-        <v>4322</v>
+        <v>4323</v>
       </c>
       <c r="AA20">
-        <v>1739</v>
+        <v>1738</v>
       </c>
       <c r="AB20">
-        <v>34103</v>
+        <v>34080</v>
       </c>
       <c r="AC20">
-        <v>3057</v>
+        <v>3058</v>
       </c>
       <c r="AD20">
         <v>164</v>
       </c>
       <c r="AE20">
-        <v>37325</v>
+        <v>37303</v>
       </c>
     </row>
     <row r="21" spans="1:31">
@@ -2480,22 +2483,22 @@
         <v>195</v>
       </c>
       <c r="D21">
+        <v>3909</v>
+      </c>
+      <c r="E21">
+        <v>3534</v>
+      </c>
+      <c r="F21">
+        <v>382</v>
+      </c>
+      <c r="G21">
         <v>3908</v>
       </c>
-      <c r="E21">
-        <v>3533</v>
-      </c>
-      <c r="F21">
-        <v>381</v>
-      </c>
-      <c r="G21">
-        <v>3911</v>
-      </c>
       <c r="H21">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="I21">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="J21">
         <v>96</v>
@@ -2507,61 +2510,61 @@
         <v>286</v>
       </c>
       <c r="M21">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="N21">
         <v>556</v>
       </c>
       <c r="O21">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="P21">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="Q21">
-        <v>1017</v>
+        <v>1019</v>
       </c>
       <c r="R21">
         <v>2338</v>
       </c>
       <c r="S21">
-        <v>3478</v>
+        <v>3472</v>
       </c>
       <c r="T21">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="U21">
-        <v>1863</v>
+        <v>1862</v>
       </c>
       <c r="V21">
-        <v>1292</v>
+        <v>1293</v>
       </c>
       <c r="W21">
-        <v>1927</v>
+        <v>1928</v>
       </c>
       <c r="X21">
-        <v>3615</v>
+        <v>3612</v>
       </c>
       <c r="Y21">
-        <v>2800</v>
+        <v>2802</v>
       </c>
       <c r="Z21">
-        <v>4399</v>
+        <v>4403</v>
       </c>
       <c r="AA21">
         <v>1743</v>
       </c>
       <c r="AB21">
-        <v>34347</v>
+        <v>34342</v>
       </c>
       <c r="AC21">
-        <v>3103</v>
+        <v>3096</v>
       </c>
       <c r="AD21">
         <v>198</v>
       </c>
       <c r="AE21">
-        <v>37648</v>
+        <v>37635</v>
       </c>
     </row>
     <row r="22" spans="1:31">
@@ -2569,58 +2572,58 @@
         <v>51</v>
       </c>
       <c r="B22">
-        <v>1108</v>
+        <v>1109</v>
       </c>
       <c r="C22">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D22">
-        <v>4005</v>
+        <v>4012</v>
       </c>
       <c r="E22">
-        <v>3621</v>
+        <v>3626</v>
       </c>
       <c r="F22">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="G22">
-        <v>3895</v>
+        <v>3890</v>
       </c>
       <c r="H22">
-        <v>1046</v>
+        <v>1043</v>
       </c>
       <c r="I22">
-        <v>519</v>
+        <v>522</v>
       </c>
       <c r="J22">
         <v>101</v>
       </c>
       <c r="K22">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="L22">
         <v>291</v>
       </c>
       <c r="M22">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="N22">
         <v>541</v>
       </c>
       <c r="O22">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="P22">
         <v>661</v>
       </c>
       <c r="Q22">
-        <v>1065</v>
+        <v>1070</v>
       </c>
       <c r="R22">
-        <v>2354</v>
+        <v>2359</v>
       </c>
       <c r="S22">
-        <v>3527</v>
+        <v>3528</v>
       </c>
       <c r="T22">
         <v>741</v>
@@ -2632,31 +2635,31 @@
         <v>1312</v>
       </c>
       <c r="W22">
-        <v>1968</v>
+        <v>1975</v>
       </c>
       <c r="X22">
-        <v>3660</v>
+        <v>3656</v>
       </c>
       <c r="Y22">
-        <v>2807</v>
+        <v>2808</v>
       </c>
       <c r="Z22">
-        <v>4484</v>
+        <v>4481</v>
       </c>
       <c r="AA22">
         <v>1738</v>
       </c>
       <c r="AB22">
-        <v>34753</v>
+        <v>34765</v>
       </c>
       <c r="AC22">
-        <v>3136</v>
+        <v>3129</v>
       </c>
       <c r="AD22">
         <v>160</v>
       </c>
       <c r="AE22">
-        <v>38050</v>
+        <v>38055</v>
       </c>
     </row>
     <row r="23" spans="1:31">
@@ -2664,94 +2667,94 @@
         <v>52</v>
       </c>
       <c r="B23">
-        <v>1142</v>
+        <v>1140</v>
       </c>
       <c r="C23">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D23">
-        <v>3860</v>
+        <v>3854</v>
       </c>
       <c r="E23">
-        <v>3494</v>
+        <v>3489</v>
       </c>
       <c r="F23">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="G23">
-        <v>4031</v>
+        <v>4039</v>
       </c>
       <c r="H23">
-        <v>1060</v>
+        <v>1061</v>
       </c>
       <c r="I23">
-        <v>570</v>
+        <v>564</v>
       </c>
       <c r="J23">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="K23">
         <v>216</v>
       </c>
       <c r="L23">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="M23">
-        <v>314</v>
+        <v>328</v>
       </c>
       <c r="N23">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="O23">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="P23">
         <v>660</v>
       </c>
       <c r="Q23">
-        <v>1084</v>
+        <v>1078</v>
       </c>
       <c r="R23">
-        <v>2298</v>
+        <v>2302</v>
       </c>
       <c r="S23">
-        <v>3568</v>
+        <v>3576</v>
       </c>
       <c r="T23">
-        <v>730</v>
+        <v>733</v>
       </c>
       <c r="U23">
-        <v>1901</v>
+        <v>1903</v>
       </c>
       <c r="V23">
-        <v>1338</v>
+        <v>1337</v>
       </c>
       <c r="W23">
-        <v>2028</v>
+        <v>2025</v>
       </c>
       <c r="X23">
-        <v>3705</v>
+        <v>3713</v>
       </c>
       <c r="Y23">
-        <v>2846</v>
+        <v>2843</v>
       </c>
       <c r="Z23">
-        <v>4484</v>
+        <v>4478</v>
       </c>
       <c r="AA23">
-        <v>1747</v>
+        <v>1746</v>
       </c>
       <c r="AB23">
-        <v>35013</v>
+        <v>35019</v>
       </c>
       <c r="AC23">
-        <v>3146</v>
+        <v>3158</v>
       </c>
       <c r="AD23">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="AE23">
-        <v>38369</v>
+        <v>38386</v>
       </c>
     </row>
     <row r="24" spans="1:31">
@@ -2759,70 +2762,70 @@
         <v>53</v>
       </c>
       <c r="B24">
-        <v>1095</v>
+        <v>1096</v>
       </c>
       <c r="C24">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D24">
-        <v>3804</v>
+        <v>3802</v>
       </c>
       <c r="E24">
-        <v>3436</v>
+        <v>3434</v>
       </c>
       <c r="F24">
         <v>371</v>
       </c>
       <c r="G24">
-        <v>3973</v>
+        <v>3966</v>
       </c>
       <c r="H24">
-        <v>1072</v>
+        <v>1073</v>
       </c>
       <c r="I24">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="J24">
         <v>93</v>
       </c>
       <c r="K24">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="L24">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="M24">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="N24">
         <v>574</v>
       </c>
       <c r="O24">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="P24">
         <v>645</v>
       </c>
       <c r="Q24">
-        <v>1052</v>
+        <v>1050</v>
       </c>
       <c r="R24">
-        <v>2303</v>
+        <v>2294</v>
       </c>
       <c r="S24">
-        <v>3583</v>
+        <v>3575</v>
       </c>
       <c r="T24">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="U24">
         <v>1911</v>
       </c>
       <c r="V24">
-        <v>1352</v>
+        <v>1351</v>
       </c>
       <c r="W24">
-        <v>2056</v>
+        <v>2050</v>
       </c>
       <c r="X24">
         <v>3687</v>
@@ -2831,22 +2834,22 @@
         <v>2857</v>
       </c>
       <c r="Z24">
-        <v>4513</v>
+        <v>4515</v>
       </c>
       <c r="AA24">
         <v>1758</v>
       </c>
       <c r="AB24">
-        <v>34931</v>
+        <v>34897</v>
       </c>
       <c r="AC24">
-        <v>3183</v>
+        <v>3190</v>
       </c>
       <c r="AD24">
         <v>186</v>
       </c>
       <c r="AE24">
-        <v>38300</v>
+        <v>38272</v>
       </c>
     </row>
     <row r="25" spans="1:31">
@@ -2854,94 +2857,94 @@
         <v>54</v>
       </c>
       <c r="B25">
-        <v>1106</v>
+        <v>1107</v>
       </c>
       <c r="C25">
         <v>224</v>
       </c>
       <c r="D25">
-        <v>3914</v>
+        <v>3917</v>
       </c>
       <c r="E25">
-        <v>3556</v>
+        <v>3558</v>
       </c>
       <c r="F25">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="G25">
-        <v>3999</v>
+        <v>3997</v>
       </c>
       <c r="H25">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="I25">
-        <v>533</v>
+        <v>536</v>
       </c>
       <c r="J25">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K25">
         <v>217</v>
       </c>
       <c r="L25">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="M25">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="N25">
         <v>584</v>
       </c>
       <c r="O25">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="P25">
         <v>652</v>
       </c>
       <c r="Q25">
-        <v>1054</v>
+        <v>1058</v>
       </c>
       <c r="R25">
-        <v>2354</v>
+        <v>2353</v>
       </c>
       <c r="S25">
-        <v>3564</v>
+        <v>3558</v>
       </c>
       <c r="T25">
-        <v>759</v>
+        <v>756</v>
       </c>
       <c r="U25">
-        <v>1917</v>
+        <v>1915</v>
       </c>
       <c r="V25">
-        <v>1373</v>
+        <v>1374</v>
       </c>
       <c r="W25">
-        <v>2057</v>
+        <v>2058</v>
       </c>
       <c r="X25">
-        <v>3703</v>
+        <v>3699</v>
       </c>
       <c r="Y25">
-        <v>2886</v>
+        <v>2889</v>
       </c>
       <c r="Z25">
-        <v>4618</v>
+        <v>4625</v>
       </c>
       <c r="AA25">
-        <v>1766</v>
+        <v>1767</v>
       </c>
       <c r="AB25">
-        <v>35317</v>
+        <v>35319</v>
       </c>
       <c r="AC25">
-        <v>3207</v>
+        <v>3196</v>
       </c>
       <c r="AD25">
         <v>192</v>
       </c>
       <c r="AE25">
-        <v>38716</v>
+        <v>38706</v>
       </c>
     </row>
     <row r="26" spans="1:31">
@@ -2949,28 +2952,28 @@
         <v>55</v>
       </c>
       <c r="B26">
-        <v>1104</v>
+        <v>1105</v>
       </c>
       <c r="C26">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D26">
-        <v>3653</v>
+        <v>3661</v>
       </c>
       <c r="E26">
-        <v>3328</v>
+        <v>3334</v>
       </c>
       <c r="F26">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="G26">
-        <v>3968</v>
+        <v>3965</v>
       </c>
       <c r="H26">
-        <v>1046</v>
+        <v>1042</v>
       </c>
       <c r="I26">
-        <v>538</v>
+        <v>544</v>
       </c>
       <c r="J26">
         <v>97</v>
@@ -2979,64 +2982,64 @@
         <v>214</v>
       </c>
       <c r="L26">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="M26">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="N26">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="O26">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="P26">
         <v>675</v>
       </c>
       <c r="Q26">
-        <v>1045</v>
+        <v>1053</v>
       </c>
       <c r="R26">
-        <v>2380</v>
+        <v>2387</v>
       </c>
       <c r="S26">
-        <v>3576</v>
+        <v>3581</v>
       </c>
       <c r="T26">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="U26">
         <v>1927</v>
       </c>
       <c r="V26">
-        <v>1372</v>
+        <v>1371</v>
       </c>
       <c r="W26">
-        <v>2067</v>
+        <v>2076</v>
       </c>
       <c r="X26">
-        <v>3794</v>
+        <v>3787</v>
       </c>
       <c r="Y26">
-        <v>2871</v>
+        <v>2873</v>
       </c>
       <c r="Z26">
-        <v>4662</v>
+        <v>4656</v>
       </c>
       <c r="AA26">
         <v>1773</v>
       </c>
       <c r="AB26">
-        <v>35211</v>
+        <v>35232</v>
       </c>
       <c r="AC26">
-        <v>3206</v>
+        <v>3195</v>
       </c>
       <c r="AD26">
         <v>169</v>
       </c>
       <c r="AE26">
-        <v>38588</v>
+        <v>38599</v>
       </c>
     </row>
     <row r="27" spans="1:31">
@@ -3044,94 +3047,94 @@
         <v>56</v>
       </c>
       <c r="B27">
-        <v>1101</v>
+        <v>1097</v>
       </c>
       <c r="C27">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D27">
-        <v>3716</v>
+        <v>3708</v>
       </c>
       <c r="E27">
-        <v>3368</v>
+        <v>3362</v>
       </c>
       <c r="F27">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="G27">
-        <v>4010</v>
+        <v>4017</v>
       </c>
       <c r="H27">
-        <v>1048</v>
+        <v>1050</v>
       </c>
       <c r="I27">
-        <v>532</v>
+        <v>524</v>
       </c>
       <c r="J27">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="K27">
         <v>219</v>
       </c>
       <c r="L27">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="M27">
-        <v>332</v>
+        <v>346</v>
       </c>
       <c r="N27">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="O27">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="P27">
         <v>682</v>
       </c>
       <c r="Q27">
-        <v>1058</v>
+        <v>1049</v>
       </c>
       <c r="R27">
-        <v>2425</v>
+        <v>2431</v>
       </c>
       <c r="S27">
-        <v>3633</v>
+        <v>3644</v>
       </c>
       <c r="T27">
-        <v>756</v>
+        <v>760</v>
       </c>
       <c r="U27">
-        <v>1993</v>
+        <v>1995</v>
       </c>
       <c r="V27">
         <v>1383</v>
       </c>
       <c r="W27">
-        <v>2102</v>
+        <v>2097</v>
       </c>
       <c r="X27">
-        <v>3832</v>
+        <v>3843</v>
       </c>
       <c r="Y27">
-        <v>2909</v>
+        <v>2904</v>
       </c>
       <c r="Z27">
-        <v>4607</v>
+        <v>4602</v>
       </c>
       <c r="AA27">
-        <v>1793</v>
+        <v>1791</v>
       </c>
       <c r="AB27">
-        <v>35585</v>
+        <v>35590</v>
       </c>
       <c r="AC27">
-        <v>3245</v>
+        <v>3260</v>
       </c>
       <c r="AD27">
         <v>167</v>
       </c>
       <c r="AE27">
-        <v>38999</v>
+        <v>39019</v>
       </c>
     </row>
     <row r="28" spans="1:31">
@@ -3139,94 +3142,94 @@
         <v>57</v>
       </c>
       <c r="B28">
-        <v>1114</v>
+        <v>1115</v>
       </c>
       <c r="C28">
         <v>227</v>
       </c>
       <c r="D28">
-        <v>3869</v>
+        <v>3867</v>
       </c>
       <c r="E28">
-        <v>3496</v>
+        <v>3494</v>
       </c>
       <c r="F28">
         <v>375</v>
       </c>
       <c r="G28">
-        <v>4040</v>
+        <v>4031</v>
       </c>
       <c r="H28">
-        <v>1102</v>
+        <v>1103</v>
       </c>
       <c r="I28">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="J28">
         <v>93</v>
       </c>
       <c r="K28">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="L28">
         <v>299</v>
       </c>
       <c r="M28">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="N28">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="O28">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="P28">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="Q28">
-        <v>1036</v>
+        <v>1032</v>
       </c>
       <c r="R28">
-        <v>2466</v>
+        <v>2452</v>
       </c>
       <c r="S28">
-        <v>3631</v>
+        <v>3619</v>
       </c>
       <c r="T28">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="U28">
         <v>1991</v>
       </c>
       <c r="V28">
-        <v>1398</v>
+        <v>1396</v>
       </c>
       <c r="W28">
-        <v>2137</v>
+        <v>2129</v>
       </c>
       <c r="X28">
-        <v>3858</v>
+        <v>3859</v>
       </c>
       <c r="Y28">
-        <v>2915</v>
+        <v>2914</v>
       </c>
       <c r="Z28">
-        <v>4634</v>
+        <v>4637</v>
       </c>
       <c r="AA28">
         <v>1807</v>
       </c>
       <c r="AB28">
-        <v>35929</v>
+        <v>35882</v>
       </c>
       <c r="AC28">
-        <v>3271</v>
+        <v>3282</v>
       </c>
       <c r="AD28">
         <v>163</v>
       </c>
       <c r="AE28">
-        <v>39367</v>
+        <v>39331</v>
       </c>
     </row>
     <row r="29" spans="1:31">
@@ -3234,28 +3237,28 @@
         <v>58</v>
       </c>
       <c r="B29">
-        <v>1069</v>
+        <v>1071</v>
       </c>
       <c r="C29">
         <v>218</v>
       </c>
       <c r="D29">
-        <v>3849</v>
+        <v>3853</v>
       </c>
       <c r="E29">
-        <v>3477</v>
+        <v>3480</v>
       </c>
       <c r="F29">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="G29">
-        <v>3909</v>
+        <v>3907</v>
       </c>
       <c r="H29">
-        <v>1046</v>
+        <v>1044</v>
       </c>
       <c r="I29">
-        <v>490</v>
+        <v>493</v>
       </c>
       <c r="J29">
         <v>80</v>
@@ -3267,61 +3270,61 @@
         <v>274</v>
       </c>
       <c r="M29">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="N29">
         <v>584</v>
       </c>
       <c r="O29">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="P29">
         <v>668</v>
       </c>
       <c r="Q29">
-        <v>1012</v>
+        <v>1017</v>
       </c>
       <c r="R29">
         <v>2454</v>
       </c>
       <c r="S29">
-        <v>3395</v>
+        <v>3386</v>
       </c>
       <c r="T29">
-        <v>715</v>
+        <v>711</v>
       </c>
       <c r="U29">
-        <v>1832</v>
+        <v>1830</v>
       </c>
       <c r="V29">
-        <v>1371</v>
+        <v>1373</v>
       </c>
       <c r="W29">
-        <v>2151</v>
+        <v>2153</v>
       </c>
       <c r="X29">
-        <v>3817</v>
+        <v>3813</v>
       </c>
       <c r="Y29">
-        <v>2867</v>
+        <v>2871</v>
       </c>
       <c r="Z29">
-        <v>4092</v>
+        <v>4100</v>
       </c>
       <c r="AA29">
-        <v>1816</v>
+        <v>1818</v>
       </c>
       <c r="AB29">
-        <v>34574</v>
+        <v>34581</v>
       </c>
       <c r="AC29">
-        <v>3087</v>
+        <v>3071</v>
       </c>
       <c r="AD29">
         <v>164</v>
       </c>
       <c r="AE29">
-        <v>37826</v>
+        <v>37818</v>
       </c>
     </row>
     <row r="30" spans="1:31">
@@ -3332,55 +3335,55 @@
         <v>1077</v>
       </c>
       <c r="C30">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D30">
-        <v>3851</v>
+        <v>3861</v>
       </c>
       <c r="E30">
-        <v>3449</v>
+        <v>3457</v>
       </c>
       <c r="F30">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="G30">
-        <v>3949</v>
+        <v>3946</v>
       </c>
       <c r="H30">
-        <v>1095</v>
+        <v>1090</v>
       </c>
       <c r="I30">
-        <v>462</v>
+        <v>467</v>
       </c>
       <c r="J30">
         <v>81</v>
       </c>
       <c r="K30">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="L30">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="M30">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="N30">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="O30">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="P30">
         <v>693</v>
       </c>
       <c r="Q30">
-        <v>1037</v>
+        <v>1049</v>
       </c>
       <c r="R30">
-        <v>2493</v>
+        <v>2500</v>
       </c>
       <c r="S30">
-        <v>3478</v>
+        <v>3484</v>
       </c>
       <c r="T30">
         <v>704</v>
@@ -3389,34 +3392,34 @@
         <v>1870</v>
       </c>
       <c r="V30">
-        <v>1393</v>
+        <v>1390</v>
       </c>
       <c r="W30">
-        <v>2171</v>
+        <v>2183</v>
       </c>
       <c r="X30">
-        <v>3921</v>
+        <v>3912</v>
       </c>
       <c r="Y30">
-        <v>2897</v>
+        <v>2899</v>
       </c>
       <c r="Z30">
-        <v>4361</v>
+        <v>4353</v>
       </c>
       <c r="AA30">
-        <v>1846</v>
+        <v>1845</v>
       </c>
       <c r="AB30">
-        <v>35252</v>
+        <v>35276</v>
       </c>
       <c r="AC30">
-        <v>3117</v>
+        <v>3103</v>
       </c>
       <c r="AD30">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="AE30">
-        <v>38541</v>
+        <v>38552</v>
       </c>
     </row>
     <row r="31" spans="1:31">
@@ -3424,94 +3427,94 @@
         <v>60</v>
       </c>
       <c r="B31">
-        <v>1068</v>
+        <v>1063</v>
       </c>
       <c r="C31">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D31">
-        <v>3835</v>
+        <v>3823</v>
       </c>
       <c r="E31">
-        <v>3442</v>
+        <v>3433</v>
       </c>
       <c r="F31">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="G31">
-        <v>3553</v>
+        <v>3557</v>
       </c>
       <c r="H31">
-        <v>1048</v>
+        <v>1053</v>
       </c>
       <c r="I31">
-        <v>426</v>
+        <v>418</v>
       </c>
       <c r="J31">
         <v>51</v>
       </c>
       <c r="K31">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="L31">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="M31">
-        <v>191</v>
+        <v>201</v>
       </c>
       <c r="N31">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="O31">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="P31">
         <v>614</v>
       </c>
       <c r="Q31">
-        <v>1016</v>
+        <v>1005</v>
       </c>
       <c r="R31">
-        <v>1939</v>
+        <v>1949</v>
       </c>
       <c r="S31">
-        <v>2931</v>
+        <v>2941</v>
       </c>
       <c r="T31">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="U31">
-        <v>1361</v>
+        <v>1362</v>
       </c>
       <c r="V31">
         <v>1354</v>
       </c>
       <c r="W31">
-        <v>2145</v>
+        <v>2139</v>
       </c>
       <c r="X31">
-        <v>3481</v>
+        <v>3494</v>
       </c>
       <c r="Y31">
-        <v>2752</v>
+        <v>2745</v>
       </c>
       <c r="Z31">
-        <v>3266</v>
+        <v>3262</v>
       </c>
       <c r="AA31">
-        <v>1841</v>
+        <v>1837</v>
       </c>
       <c r="AB31">
-        <v>30942</v>
+        <v>30938</v>
       </c>
       <c r="AC31">
-        <v>2558</v>
+        <v>2574</v>
       </c>
       <c r="AD31">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="AE31">
-        <v>33656</v>
+        <v>33665</v>
       </c>
     </row>
     <row r="32" spans="1:31">
@@ -3519,94 +3522,94 @@
         <v>61</v>
       </c>
       <c r="B32">
-        <v>1060</v>
+        <v>1062</v>
       </c>
       <c r="C32">
         <v>227</v>
       </c>
       <c r="D32">
-        <v>3850</v>
+        <v>3847</v>
       </c>
       <c r="E32">
-        <v>3471</v>
+        <v>3469</v>
       </c>
       <c r="F32">
         <v>379</v>
       </c>
       <c r="G32">
-        <v>3789</v>
+        <v>3783</v>
       </c>
       <c r="H32">
-        <v>1082</v>
+        <v>1083</v>
       </c>
       <c r="I32">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="J32">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K32">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="L32">
         <v>285</v>
       </c>
       <c r="M32">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="N32">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="O32">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="P32">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="Q32">
-        <v>1036</v>
+        <v>1030</v>
       </c>
       <c r="R32">
-        <v>1735</v>
+        <v>1721</v>
       </c>
       <c r="S32">
-        <v>3597</v>
+        <v>3582</v>
       </c>
       <c r="T32">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U32">
         <v>1449</v>
       </c>
       <c r="V32">
-        <v>1392</v>
+        <v>1391</v>
       </c>
       <c r="W32">
-        <v>2124</v>
+        <v>2115</v>
       </c>
       <c r="X32">
-        <v>3554</v>
+        <v>3555</v>
       </c>
       <c r="Y32">
-        <v>2787</v>
+        <v>2786</v>
       </c>
       <c r="Z32">
-        <v>3595</v>
+        <v>3598</v>
       </c>
       <c r="AA32">
-        <v>1858</v>
+        <v>1859</v>
       </c>
       <c r="AB32">
-        <v>32328</v>
+        <v>32279</v>
       </c>
       <c r="AC32">
-        <v>3044</v>
+        <v>3058</v>
       </c>
       <c r="AD32">
         <v>156</v>
       </c>
       <c r="AE32">
-        <v>35528</v>
+        <v>35493</v>
       </c>
     </row>
     <row r="33" spans="1:31">
@@ -3614,31 +3617,31 @@
         <v>62</v>
       </c>
       <c r="B33">
-        <v>1113</v>
+        <v>1117</v>
       </c>
       <c r="C33">
         <v>194</v>
       </c>
       <c r="D33">
-        <v>3746</v>
+        <v>3751</v>
       </c>
       <c r="E33">
-        <v>3352</v>
+        <v>3355</v>
       </c>
       <c r="F33">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="G33">
-        <v>4047</v>
+        <v>4048</v>
       </c>
       <c r="H33">
-        <v>1099</v>
+        <v>1097</v>
       </c>
       <c r="I33">
-        <v>490</v>
+        <v>495</v>
       </c>
       <c r="J33">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K33">
         <v>212</v>
@@ -3647,61 +3650,61 @@
         <v>297</v>
       </c>
       <c r="M33">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="N33">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="O33">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="P33">
         <v>687</v>
       </c>
       <c r="Q33">
-        <v>1064</v>
+        <v>1071</v>
       </c>
       <c r="R33">
         <v>2168</v>
       </c>
       <c r="S33">
-        <v>3866</v>
+        <v>3854</v>
       </c>
       <c r="T33">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="U33">
-        <v>1684</v>
+        <v>1682</v>
       </c>
       <c r="V33">
-        <v>1416</v>
+        <v>1419</v>
       </c>
       <c r="W33">
-        <v>2159</v>
+        <v>2162</v>
       </c>
       <c r="X33">
-        <v>3675</v>
+        <v>3670</v>
       </c>
       <c r="Y33">
-        <v>2873</v>
+        <v>2878</v>
       </c>
       <c r="Z33">
-        <v>4020</v>
+        <v>4029</v>
       </c>
       <c r="AA33">
-        <v>1870</v>
+        <v>1873</v>
       </c>
       <c r="AB33">
-        <v>34381</v>
+        <v>34397</v>
       </c>
       <c r="AC33">
-        <v>3258</v>
+        <v>3238</v>
       </c>
       <c r="AD33">
         <v>152</v>
       </c>
       <c r="AE33">
-        <v>37792</v>
+        <v>37788</v>
       </c>
     </row>
     <row r="34" spans="1:31">
@@ -3709,94 +3712,189 @@
         <v>63</v>
       </c>
       <c r="B34">
-        <v>1093</v>
+        <v>1104</v>
       </c>
       <c r="C34">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D34">
-        <v>3813</v>
+        <v>3822</v>
       </c>
       <c r="E34">
-        <v>3410</v>
+        <v>3418</v>
       </c>
       <c r="F34">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="G34">
-        <v>4053</v>
+        <v>4083</v>
       </c>
       <c r="H34">
-        <v>1093</v>
+        <v>1088</v>
       </c>
       <c r="I34">
-        <v>491</v>
+        <v>522</v>
       </c>
       <c r="J34">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K34">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="L34">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="M34">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="N34">
-        <v>642</v>
+        <v>638</v>
       </c>
       <c r="O34">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="P34">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="Q34">
-        <v>1051</v>
+        <v>1062</v>
       </c>
       <c r="R34">
-        <v>2206</v>
+        <v>2221</v>
       </c>
       <c r="S34">
-        <v>3931</v>
+        <v>3917</v>
       </c>
       <c r="T34">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="U34">
-        <v>1758</v>
+        <v>1746</v>
       </c>
       <c r="V34">
-        <v>1470</v>
+        <v>1480</v>
       </c>
       <c r="W34">
-        <v>2161</v>
+        <v>2173</v>
       </c>
       <c r="X34">
-        <v>3809</v>
+        <v>3810</v>
       </c>
       <c r="Y34">
-        <v>2913</v>
+        <v>2931</v>
       </c>
       <c r="Z34">
-        <v>4583</v>
+        <v>4581</v>
       </c>
       <c r="AA34">
-        <v>1886</v>
+        <v>1895</v>
       </c>
       <c r="AB34">
-        <v>35482</v>
+        <v>35573</v>
       </c>
       <c r="AC34">
-        <v>3339</v>
+        <v>3307</v>
       </c>
       <c r="AD34">
         <v>182</v>
       </c>
       <c r="AE34">
-        <v>38998</v>
+        <v>39060</v>
+      </c>
+    </row>
+    <row r="35" spans="1:31">
+      <c r="A35" t="s">
+        <v>64</v>
+      </c>
+      <c r="B35">
+        <v>1104</v>
+      </c>
+      <c r="C35">
+        <v>220</v>
+      </c>
+      <c r="D35">
+        <v>3940</v>
+      </c>
+      <c r="E35">
+        <v>3507</v>
+      </c>
+      <c r="F35">
+        <v>432</v>
+      </c>
+      <c r="G35">
+        <v>4130</v>
+      </c>
+      <c r="H35">
+        <v>1081</v>
+      </c>
+      <c r="I35">
+        <v>563</v>
+      </c>
+      <c r="J35">
+        <v>89</v>
+      </c>
+      <c r="K35">
+        <v>224</v>
+      </c>
+      <c r="L35">
+        <v>289</v>
+      </c>
+      <c r="M35">
+        <v>283</v>
+      </c>
+      <c r="N35">
+        <v>618</v>
+      </c>
+      <c r="O35">
+        <v>258</v>
+      </c>
+      <c r="P35">
+        <v>732</v>
+      </c>
+      <c r="Q35">
+        <v>1121</v>
+      </c>
+      <c r="R35">
+        <v>2244</v>
+      </c>
+      <c r="S35">
+        <v>4226</v>
+      </c>
+      <c r="T35">
+        <v>623</v>
+      </c>
+      <c r="U35">
+        <v>1635</v>
+      </c>
+      <c r="V35">
+        <v>1462</v>
+      </c>
+      <c r="W35">
+        <v>2230</v>
+      </c>
+      <c r="X35">
+        <v>3860</v>
+      </c>
+      <c r="Y35">
+        <v>2918</v>
+      </c>
+      <c r="Z35">
+        <v>4230</v>
+      </c>
+      <c r="AA35">
+        <v>1908</v>
+      </c>
+      <c r="AB35">
+        <v>35758</v>
+      </c>
+      <c r="AC35">
+        <v>3535</v>
+      </c>
+      <c r="AD35">
+        <v>181</v>
+      </c>
+      <c r="AE35">
+        <v>39460</v>
       </c>
     </row>
   </sheetData>
